--- a/Astrea V.xlsx
+++ b/Astrea V.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="18495" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -21,7 +21,22 @@
     <t>Year</t>
   </si>
   <si>
+    <t>Principal (INPUT AMT HERE)</t>
+  </si>
+  <si>
+    <t>i/r p.a</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
     <t>CASH VALUE</t>
+  </si>
+  <si>
+    <t>ROI</t>
   </si>
   <si>
     <t>% (of principal)</t>
@@ -30,44 +45,28 @@
     <t>%(of principal,yearly)</t>
   </si>
   <si>
-    <t>ROI</t>
-  </si>
-  <si>
     <t>5 YEAR</t>
   </si>
   <si>
     <t>10 YEAR</t>
   </si>
-  <si>
-    <t>VALUE</t>
-  </si>
-  <si>
-    <t>i/r p.a</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Principal (INPUT AMT HERE)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -75,39 +74,192 @@
       <sz val="14"/>
       <color theme="0"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="0"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -115,8 +267,194 @@
         <bgColor theme="6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -171,6 +509,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="6"/>
       </top>
@@ -193,84 +540,354 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color theme="6"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="38" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="38" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Accent3" xfId="1" builtinId="37"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -561,283 +1178,262 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="18.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="21.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="28.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="54" x14ac:dyDescent="0.3">
+    <row r="1" ht="54" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" ht="18.75" spans="1:5">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>5000</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1.0385</v>
+      </c>
+      <c r="D2" s="9">
+        <f>B2</f>
+        <v>5000</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" ht="18.75" spans="1:5">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="8">
+        <v>1.0385</v>
+      </c>
+      <c r="D3" s="9">
+        <f>D2*C3</f>
+        <v>5192.5</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" ht="18.75" spans="1:5">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="8">
+        <v>1.0385</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" ref="D2:D12" si="0">D3*C4</f>
+        <v>5392.41125</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" ht="18.75" spans="1:5">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="8">
+        <v>1.0385</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>5600.019083125</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" ht="18.75" spans="1:5">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="8">
+        <v>1.0385</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>5815.61981782531</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" ht="18.75" spans="1:5">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="8">
+        <v>1.0485</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>6097.67737898984</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" ht="18.75" spans="1:5">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="8">
+        <v>1.0485</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
+        <v>6393.41473187085</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" ht="18.75" spans="1:5">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="8">
+        <v>1.0485</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>6703.49534636658</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" ht="18.75" spans="1:5">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="8">
+        <v>1.0485</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>7028.61487066536</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" ht="18.75" spans="1:5">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="8">
+        <v>1.0485</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>7369.50269189263</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" ht="18.75" spans="1:5">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13">
+        <v>1.0485</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="0"/>
+        <v>7726.92357244942</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" ht="18.75" spans="1:5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" ht="18" spans="1:5">
+      <c r="A14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1.0385</v>
-      </c>
-      <c r="D2" s="8">
-        <f>B2</f>
-        <v>4000</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="7">
-        <v>1.0385</v>
-      </c>
-      <c r="D3" s="8">
-        <f>D2*C3</f>
-        <v>4154</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="7">
-        <v>1.0385</v>
-      </c>
-      <c r="D4" s="8">
-        <f t="shared" ref="D2:D12" si="0">D3*C4</f>
-        <v>4313.9290000000001</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="7">
-        <v>1.0385</v>
-      </c>
-      <c r="D5" s="8">
-        <f t="shared" si="0"/>
-        <v>4480.0152664999996</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="7">
-        <v>1.0385</v>
-      </c>
-      <c r="D6" s="8">
-        <f>D5*C6</f>
-        <v>4652.4958542602499</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="7">
-        <v>1.0485</v>
-      </c>
-      <c r="D7" s="8">
-        <f t="shared" si="0"/>
-        <v>4878.1419031918722</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="7">
-        <v>1.0485</v>
-      </c>
-      <c r="D8" s="8">
-        <f t="shared" si="0"/>
-        <v>5114.7317854966777</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="7">
-        <v>1.0485</v>
-      </c>
-      <c r="D9" s="8">
-        <f t="shared" si="0"/>
-        <v>5362.7962770932663</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="7">
-        <v>1.0485</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" si="0"/>
-        <v>5622.89189653229</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+    </row>
+    <row r="15" ht="18" spans="1:5">
+      <c r="A15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="7">
-        <v>1.0485</v>
-      </c>
-      <c r="D11" s="8">
-        <f t="shared" si="0"/>
-        <v>5895.6021535141062</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="B15" s="19">
+        <f>D7</f>
+        <v>6097.67737898984</v>
+      </c>
+      <c r="C15" s="19">
+        <f>D7-D2</f>
+        <v>1097.67737898984</v>
+      </c>
+      <c r="D15" s="19">
+        <f>(C15/B2)*100</f>
+        <v>21.9535475797968</v>
+      </c>
+      <c r="E15" s="20">
+        <f>D15/5</f>
+        <v>4.39070951595936</v>
+      </c>
+    </row>
+    <row r="16" ht="18" spans="1:5">
+      <c r="A16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12">
-        <v>1.0485</v>
-      </c>
-      <c r="D12" s="13">
-        <f t="shared" si="0"/>
-        <v>6181.5388579595401</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="20">
-        <f>D7</f>
-        <v>4878.1419031918722</v>
-      </c>
-      <c r="C18" s="20">
-        <f>D7-D2</f>
-        <v>878.14190319187219</v>
-      </c>
-      <c r="D18" s="20">
-        <f>(C18/B2)*100</f>
-        <v>21.953547579796805</v>
-      </c>
-      <c r="E18" s="21">
-        <f>D18/5</f>
-        <v>4.3907095159593608</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="23">
+      <c r="B16" s="22">
         <f>D12</f>
-        <v>6181.5388579595401</v>
-      </c>
-      <c r="C19" s="23">
+        <v>7726.92357244942</v>
+      </c>
+      <c r="C16" s="22">
         <f>D12-D2</f>
-        <v>2181.5388579595401</v>
-      </c>
-      <c r="D19" s="23">
-        <f>(C19/B2)*100</f>
-        <v>54.538471448988503</v>
-      </c>
-      <c r="E19" s="24">
-        <f>D19/10</f>
-        <v>5.4538471448988499</v>
+        <v>2726.92357244942</v>
+      </c>
+      <c r="D16" s="22">
+        <f>(C16/B2)*100</f>
+        <v>54.5384714489885</v>
+      </c>
+      <c r="E16" s="23">
+        <f>D16/10</f>
+        <v>5.45384714489885</v>
       </c>
     </row>
   </sheetData>
@@ -845,30 +1441,39 @@
     <mergeCell ref="B2:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>